--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R204_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1434,10 +1446,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1481,28 +1493,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1527,28 +1539,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1607,10 +1619,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1654,28 +1666,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1700,28 +1712,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1780,10 +1792,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1827,28 +1839,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1873,28 +1885,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1953,10 +1965,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2000,28 +2012,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2046,28 +2058,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2126,10 +2138,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2173,28 +2185,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2219,28 +2231,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2299,10 +2311,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2346,28 +2358,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2392,28 +2404,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2472,10 +2484,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2519,28 +2531,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2565,28 +2577,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2645,10 +2657,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2692,28 +2704,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2738,28 +2750,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2818,10 +2830,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2865,28 +2877,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2911,28 +2923,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2991,10 +3003,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3038,28 +3050,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3084,28 +3096,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4266,10 +4278,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4313,28 +4325,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4359,28 +4371,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4439,10 +4451,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4486,28 +4498,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4532,28 +4544,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4612,10 +4624,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4659,28 +4671,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4705,28 +4717,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4785,10 +4797,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4832,28 +4844,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4878,28 +4890,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4958,10 +4970,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5005,28 +5017,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5051,28 +5063,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5131,10 +5143,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5178,28 +5190,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5224,28 +5236,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5304,10 +5316,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5351,28 +5363,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5397,28 +5409,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5477,10 +5489,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5524,28 +5536,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5570,28 +5582,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5650,10 +5662,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5697,28 +5709,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5743,28 +5755,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5823,10 +5835,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5870,28 +5882,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5916,28 +5928,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5996,10 +6008,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6043,28 +6055,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6089,28 +6101,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6169,10 +6181,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6216,28 +6228,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6262,28 +6274,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6342,10 +6354,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6389,28 +6401,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6435,28 +6447,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6515,10 +6527,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
